--- a/SuppXLS/Scen_BaseOther.xlsx
+++ b/SuppXLS/Scen_BaseOther.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="13_ncr:1_{C581AC64-41B5-498A-879E-C40B12E404E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D221D30-3B99-4C10-B69C-7E1B912FBB8B}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="13_ncr:1_{C581AC64-41B5-498A-879E-C40B12E404E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B10B71-0394-4F2C-B401-387776C0B0FB}"/>
   <bookViews>
-    <workbookView xWindow="1610" yWindow="3220" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GridCap" sheetId="1" r:id="rId1"/>
     <sheet name="GridLoss" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="78">
   <si>
     <t>* Grid line capacities in GW, plus some other parameters; a few lines have flow constraints</t>
   </si>
@@ -415,6 +415,9 @@
     <t>~TFM_INS</t>
   </si>
   <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
     <t>LimType</t>
   </si>
   <si>
@@ -427,6 +430,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
     <t>Pset_PN</t>
   </si>
   <si>
@@ -442,9 +448,6 @@
     <t>L_N*</t>
   </si>
   <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
     <t>Saranya</t>
   </si>
   <si>
@@ -457,9 +460,6 @@
     <t>NCAP_BND</t>
   </si>
   <si>
-    <t>no new capacity in 2020</t>
-  </si>
-  <si>
     <t>Sofia</t>
   </si>
   <si>
@@ -475,12 +475,6 @@
     <t>L_N1_N6</t>
   </si>
   <si>
-    <t>FCH-VTS</t>
-  </si>
-  <si>
-    <t>External connections</t>
-  </si>
-  <si>
     <t>Yagmur</t>
   </si>
   <si>
@@ -490,228 +484,114 @@
     <t>L_N3_N5</t>
   </si>
   <si>
-    <t>VIT-STQ</t>
-  </si>
-  <si>
     <t>L_N3_N1</t>
   </si>
   <si>
-    <t>VIT-FCH</t>
-  </si>
-  <si>
     <t>L_N3_N23</t>
   </si>
   <si>
-    <t>VIT-CGR</t>
-  </si>
-  <si>
-    <t>Internal connections</t>
-  </si>
-  <si>
-    <t>L_N23_N9</t>
-  </si>
-  <si>
-    <t>CGR-PVM</t>
+    <t>L_N23_N27</t>
   </si>
   <si>
     <t>L_N4_N7</t>
   </si>
   <si>
-    <t>VTO-ALE</t>
-  </si>
-  <si>
     <t>L_N4_N27</t>
   </si>
   <si>
-    <t>VTO-PMO</t>
-  </si>
-  <si>
     <t>L_N4_N12</t>
   </si>
   <si>
-    <t>VTO-LDR</t>
-  </si>
-  <si>
     <t>L_N13_N21</t>
   </si>
   <si>
-    <t>RDJ-PRZ</t>
-  </si>
-  <si>
     <t>L_N13_N20</t>
   </si>
   <si>
-    <t>RDJ-SVC</t>
-  </si>
-  <si>
     <t>L_N20_N12</t>
   </si>
   <si>
-    <t>SVC-LDR (SVC-BDC-LRL-LDR)</t>
-  </si>
-  <si>
     <t>L_N20_N27</t>
   </si>
   <si>
-    <t>SVC-PMO (SVC - BDC - PMO</t>
-  </si>
-  <si>
     <t>L_N20_N25</t>
   </si>
   <si>
-    <t>SVC-PDJ</t>
-  </si>
-  <si>
     <t>L_N12_N11</t>
   </si>
   <si>
-    <t>LDR-CTS</t>
-  </si>
-  <si>
     <t>L_N12_N10</t>
   </si>
   <si>
-    <t>LDR-LDM</t>
-  </si>
-  <si>
     <t>L_N11_N21</t>
   </si>
   <si>
-    <t>CTS-PRZ</t>
-  </si>
-  <si>
     <t>L_N16_N22</t>
   </si>
   <si>
-    <t>MCH-CNL</t>
-  </si>
-  <si>
     <t>L_N16_N24</t>
   </si>
   <si>
-    <t>MCH-SSR</t>
-  </si>
-  <si>
     <t>L_N16_N19</t>
   </si>
   <si>
-    <t>MCH-PFE</t>
-  </si>
-  <si>
     <t>L_N16_N17</t>
   </si>
   <si>
-    <t>MCH-AEP-CAN</t>
-  </si>
-  <si>
     <t>L_N16_N18</t>
   </si>
   <si>
-    <t>MCH-AEP-LIV</t>
-  </si>
-  <si>
     <t>L_N10_N9</t>
   </si>
   <si>
-    <t>LDM-PVM</t>
-  </si>
-  <si>
     <t>L_N9_N28</t>
   </si>
   <si>
-    <t>PVM-SDA</t>
-  </si>
-  <si>
     <t>L_N9_N27</t>
   </si>
   <si>
-    <t>PVM-PMO</t>
-  </si>
-  <si>
     <t>L_N17_N18</t>
   </si>
   <si>
-    <t>CAN-LIV</t>
-  </si>
-  <si>
     <t>L_N17_N19</t>
   </si>
   <si>
-    <t>CAN-PFE</t>
-  </si>
-  <si>
     <t>L_N18_N19</t>
   </si>
   <si>
-    <t>LIV-PFE</t>
-  </si>
-  <si>
     <t>L_N24_N14</t>
   </si>
   <si>
-    <t>SSR-LDF</t>
-  </si>
-  <si>
     <t>L_N14_N15</t>
   </si>
   <si>
-    <t>LDF-STA</t>
-  </si>
-  <si>
     <t>L_N1_N19</t>
   </si>
   <si>
-    <t>PFE-FCH</t>
-  </si>
-  <si>
     <t>L_N2_N26</t>
   </si>
   <si>
-    <t>AMP-SJO</t>
-  </si>
-  <si>
     <t>L_N2_N4</t>
   </si>
   <si>
-    <t>AMP-VTO</t>
-  </si>
-  <si>
     <t>L_N5_N6</t>
   </si>
   <si>
-    <t>STQ-VTS</t>
-  </si>
-  <si>
     <t>L_N7_N8</t>
   </si>
   <si>
-    <t>VIV-DerALE</t>
-  </si>
-  <si>
     <t>L_N8_N26</t>
   </si>
   <si>
-    <t>VIV-SJO</t>
-  </si>
-  <si>
     <t>L_N8_N19</t>
   </si>
   <si>
-    <t>VIV-PFE</t>
-  </si>
-  <si>
     <t>L_N12_N3</t>
   </si>
   <si>
-    <t>LDR-VIT</t>
-  </si>
-  <si>
     <t>L_N10_N20</t>
   </si>
   <si>
-    <t>LDM-SVC (BDC-SVC)</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -724,9 +604,6 @@
     <t>TFM_DINS</t>
   </si>
   <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
     <t>Other_Indexes</t>
   </si>
   <si>
@@ -734,9 +611,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>Pset_Set</t>
   </si>
   <si>
     <t>Pset_CI</t>
@@ -773,7 +647,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -849,26 +726,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="3"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="6"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,12 +751,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,28 +792,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1264,879 +1122,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.53125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" customWidth="1"/>
+    <col min="8" max="8" width="4.73046875" customWidth="1"/>
+    <col min="9" max="9" width="26.46484375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="33.73046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.06640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="5" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>8.76</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
+      <c r="L5" s="16"/>
+      <c r="P5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="Q5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
-        <v>2023</v>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="P6" t="s">
         <v>17</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="13" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43.52</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" s="16"/>
+      <c r="P7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="Q7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="17" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43.52</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5">
-        <v>19.5</v>
-      </c>
-      <c r="E8" s="13" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="13" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>47.360000000000007</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>47.360000000000007</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="13" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>47.360000000000007</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="10" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="13" t="s">
+    <row r="17" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10.112000000000002</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10.112000000000002</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12.480000000000002</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5.5680000000000005</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="13" t="s">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10.112000000000002</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="13" t="s">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5">
+        <v>28.224000000000004</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12.480000000000002</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="13" t="s">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10.112000000000002</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5">
+        <v>12.64</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5" t="e">
-        <f>0.8*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="13" t="s">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5">
+        <v>12.64</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="23.25">
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="5">
         <v>12.64</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="G31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5">
+        <v>31.200000000000003</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5">
+        <v>43.52</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="14">
+        <v>56.56</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="14">
+        <v>56.56</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="14">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="14">
+        <v>35.28</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="14">
+        <v>39.44</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="14">
+        <v>35.28</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="14">
+        <v>47.360000000000007</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="14">
         <v>12.64</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5">
-        <v>6.96</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5">
-        <v>14</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5">
-        <v>12.64</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5">
-        <v>35.28</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G45" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5">
-        <v>47.36</v>
-      </c>
-      <c r="E25" s="14" t="s">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12.64</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5">
-        <v>15.8</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="5">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="5">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5">
-        <v>12.64</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="5">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="5">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="5">
-        <v>31.200000000000003</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="5">
-        <v>43.52</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
-      </c>
-      <c r="J42">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="20" t="e">
-        <f>#REF!*0.8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="C46" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D47" s="6"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="E47" s="7"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D48" s="6"/>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="4:9">
+      <c r="E48" s="7"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="4:9">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D50" s="6"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="4:9">
+      <c r="E50" s="7"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="4:9">
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="4:9">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="4:9">
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="4:9"/>
-    <row r="73" spans="4:5" ht="12.75" customHeight="1">
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="4:5"/>
-    <row r="75" spans="4:5" ht="12.75" customHeight="1">
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="4:5"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2149,91 +1879,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" customWidth="1"/>
+    <col min="10" max="10" width="12.46484375" customWidth="1"/>
+    <col min="18" max="18" width="36.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.6">
+    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18">
-      <c r="B2" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="12.95">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -2253,12 +1983,12 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -2271,19 +2001,19 @@
         <v>-0.03</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" ref="N6:N44" si="0">RIGHT(F6,6)</f>
         <v>ELC_N5</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -2296,19 +2026,19 @@
         <v>-0.03</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N1</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -2321,44 +2051,44 @@
         <v>-0.03</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N8" t="str">
         <f>RIGHT(F8,7)</f>
         <v>ELC_N23</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="12.75">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>2023</v>
       </c>
       <c r="F9" t="str">
-        <f>"IMP~OUT~ELC"&amp;RIGHT(J9,3)</f>
-        <v>IMP~OUT~ELC_N9</v>
+        <f>"IMP~OUT~ELC"&amp;RIGHT(J9,4)</f>
+        <v>IMP~OUT~ELC_N27</v>
       </c>
       <c r="H9">
         <v>-0.03</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N9" t="str">
-        <f>RIGHT(F9,6)</f>
-        <v>ELC_N9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
+        <f>RIGHT(F9,7)</f>
+        <v>ELC_N27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -2371,19 +2101,19 @@
         <v>-0.03</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N7</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -2396,19 +2126,19 @@
         <v>-0.03</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N11" t="str">
         <f>RIGHT(F11,7)</f>
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>2023</v>
@@ -2421,19 +2151,19 @@
         <v>-0.03</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" ref="N12:N15" si="1">RIGHT(F12,7)</f>
         <v>ELC_N12</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -2446,19 +2176,19 @@
         <v>-0.03</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
         <v>ELC_N21</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -2471,19 +2201,19 @@
         <v>-0.03</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
         <v>ELC_N20</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>2023</v>
@@ -2496,19 +2226,19 @@
         <v>-0.03</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
         <v>ELC_N12</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -2521,19 +2251,19 @@
         <v>-0.03</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>ELCN27</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -2546,19 +2276,19 @@
         <v>-0.03</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N17" t="str">
         <f>RIGHT(F17,7)</f>
         <v>ELC_N25</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -2571,19 +2301,19 @@
         <v>-0.03</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" ref="N18:N25" si="3">RIGHT(F18,7)</f>
         <v>ELC_N11</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>2023</v>
@@ -2596,19 +2326,19 @@
         <v>-0.03</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N10</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -2621,19 +2351,19 @@
         <v>-0.03</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N21</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>2023</v>
@@ -2646,19 +2376,19 @@
         <v>-0.03</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N22</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -2671,19 +2401,19 @@
         <v>-0.03</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N24</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>2023</v>
@@ -2696,19 +2426,19 @@
         <v>-0.03</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>2023</v>
@@ -2721,19 +2451,19 @@
         <v>-0.03</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N17</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>2023</v>
@@ -2746,19 +2476,19 @@
         <v>-0.03</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N18</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>2023</v>
@@ -2771,19 +2501,19 @@
         <v>-0.03</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N9</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>2023</v>
@@ -2796,19 +2526,19 @@
         <v>-0.03</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="N27" t="str">
         <f>RIGHT(F27,7)</f>
         <v>ELC_N28</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>2023</v>
@@ -2821,19 +2551,19 @@
         <v>-0.03</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" ref="N28:N30" si="5">RIGHT(F28,7)</f>
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>2023</v>
@@ -2846,19 +2576,19 @@
         <v>-0.03</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="5"/>
         <v>ELC_N18</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>2023</v>
@@ -2871,19 +2601,19 @@
         <v>-0.03</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="5"/>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>2023</v>
@@ -2896,19 +2626,19 @@
         <v>-0.03</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N31" t="str">
         <f>RIGHT(F31,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>2023</v>
@@ -2921,19 +2651,19 @@
         <v>-0.03</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="N32" t="str">
         <f>RIGHT(F32,7)</f>
         <v>ELC_N14</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>2023</v>
@@ -2946,19 +2676,19 @@
         <v>-0.03</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="N33" t="str">
         <f>RIGHT(F33,7)</f>
         <v>ELC_N15</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E34">
         <v>2023</v>
@@ -2971,19 +2701,19 @@
         <v>-0.03</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="N34" t="str">
         <f>RIGHT(F34,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E35">
         <v>2023</v>
@@ -2996,19 +2726,19 @@
         <v>-0.03</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="N35" t="str">
         <f>RIGHT(F35,7)</f>
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E36">
         <v>2023</v>
@@ -3028,12 +2758,12 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E37">
         <v>2023</v>
@@ -3046,19 +2776,19 @@
         <v>-0.03</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N37" t="str">
         <f>RIGHT(F37,7)</f>
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E38">
         <v>2023</v>
@@ -3071,19 +2801,19 @@
         <v>-0.03</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N4</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2023</v>
@@ -3096,19 +2826,19 @@
         <v>-0.03</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E40">
         <v>2023</v>
@@ -3121,19 +2851,19 @@
         <v>-0.03</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N8</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>2023</v>
@@ -3146,19 +2876,19 @@
         <v>-0.03</v>
       </c>
       <c r="J41" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="N41" t="str">
         <f>RIGHT(F41,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <v>2023</v>
@@ -3171,19 +2901,19 @@
         <v>-0.03</v>
       </c>
       <c r="J42" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="N42" t="str">
         <f>RIGHT(F42,7)</f>
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <v>2023</v>
@@ -3196,19 +2926,19 @@
         <v>-0.03</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="N43" t="str">
         <f>RIGHT(F43,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>2023</v>
@@ -3221,19 +2951,19 @@
         <v>-0.03</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N3</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E45">
         <v>2023</v>
@@ -3246,28 +2976,28 @@
         <v>-0.03</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="N45" t="str">
         <f>RIGHT(F45,7)</f>
         <v>ELC_N20</v>
       </c>
     </row>
-    <row r="51" spans="8:8"/>
-    <row r="52" spans="8:8"/>
-    <row r="53" spans="8:8"/>
-    <row r="54" spans="8:8"/>
-    <row r="55" spans="8:8"/>
-    <row r="56" spans="8:8"/>
-    <row r="57" spans="8:8"/>
-    <row r="58" spans="8:8"/>
-    <row r="59" spans="8:8"/>
-    <row r="60" spans="8:8"/>
-    <row r="61" spans="8:8"/>
-    <row r="62" spans="8:8"/>
-    <row r="63" spans="8:8"/>
-    <row r="64" spans="8:8"/>
-    <row r="65" spans="8:8"/>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3277,21 +3007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -3435,14 +3150,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEB460B-B7D2-48E7-AA7D-5454C474B8BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0766DE0B-D4A0-4A8A-8F94-54C70B8F51FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A91278-E6EA-4F74-81D6-5AE489DA3938}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A91278-E6EA-4F74-81D6-5AE489DA3938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0766DE0B-D4A0-4A8A-8F94-54C70B8F51FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEB460B-B7D2-48E7-AA7D-5454C474B8BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_BaseOther.xlsx
+++ b/SuppXLS/Scen_BaseOther.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28813"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="453" documentId="13_ncr:1_{C581AC64-41B5-498A-879E-C40B12E404E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B10B71-0394-4F2C-B401-387776C0B0FB}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GridCap" sheetId="1" r:id="rId1"/>
     <sheet name="GridLoss" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -650,7 +650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -780,7 +780,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -808,14 +808,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1128,30 +1123,30 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="7.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.53125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.53125" customWidth="1"/>
-    <col min="8" max="8" width="4.73046875" customWidth="1"/>
-    <col min="9" max="9" width="26.46484375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="33.73046875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.06640625" style="15"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="13.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="13.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1186,7 @@
       <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="15"/>
       <c r="P5" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1210,7 @@
       <c r="G6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="15"/>
       <c r="P6" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1232,7 @@
       <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="15"/>
       <c r="P7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17">
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1289,9 +1284,9 @@
       <c r="G10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1351,7 +1346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" ht="14.25" customHeight="1">
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1395,9 +1390,9 @@
       <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:10" ht="14.25" customHeight="1">
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1411,9 +1406,9 @@
       <c r="G18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:10">
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10">
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:10">
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1473,7 +1468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:10">
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:10">
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:10">
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:10">
       <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +1528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:10">
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +1543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:10">
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1563,7 +1558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:10">
       <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1578,7 +1573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:10">
       <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:10">
       <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
@@ -1606,9 +1601,9 @@
       <c r="G31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="3:10">
       <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
@@ -1621,9 +1616,9 @@
       <c r="G32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="3:10">
       <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
@@ -1636,9 +1631,9 @@
       <c r="G33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="3:10">
       <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
@@ -1651,9 +1646,9 @@
       <c r="G34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="3:10">
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
@@ -1666,9 +1661,9 @@
       <c r="G35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="3:10">
       <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
@@ -1681,9 +1676,9 @@
       <c r="G36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="3:10">
       <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
@@ -1696,9 +1691,9 @@
       <c r="G37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="3:10">
       <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
@@ -1711,9 +1706,9 @@
       <c r="G38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="3:10">
       <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
@@ -1726,9 +1721,9 @@
       <c r="G39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="3:10">
       <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
@@ -1741,9 +1736,9 @@
       <c r="G40" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="3:10">
       <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
@@ -1756,9 +1751,9 @@
       <c r="G41" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="3:10">
       <c r="C42" s="5" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:10">
       <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:10">
       <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:10">
       <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
@@ -1814,59 +1809,59 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:10">
       <c r="C46" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:10">
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="3:10">
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="4:10">
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:10">
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="4:10">
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:10">
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:10">
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:10">
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:10"/>
+    <row r="73" spans="4:6" ht="12.75" customHeight="1">
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:6"/>
+    <row r="75" spans="4:6" ht="12.75" customHeight="1">
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="4:6"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1883,32 +1878,32 @@
       <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="8.46484375" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" customWidth="1"/>
-    <col min="10" max="10" width="12.46484375" customWidth="1"/>
-    <col min="18" max="18" width="36.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="15">
       <c r="B1" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18">
       <c r="B2" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" ht="13.15">
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1983,7 +1978,7 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
         <v>75</v>
       </c>
@@ -2008,7 +2003,7 @@
         <v>ELC_N5</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -2033,7 +2028,7 @@
         <v>ELC_N1</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18">
       <c r="B8" t="s">
         <v>75</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>ELC_N23</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -2083,7 +2078,7 @@
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>75</v>
       </c>
@@ -2108,7 +2103,7 @@
         <v>ELC_N7</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -2158,7 +2153,7 @@
         <v>ELC_N12</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -2183,7 +2178,7 @@
         <v>ELC_N21</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18">
       <c r="B14" t="s">
         <v>75</v>
       </c>
@@ -2208,7 +2203,7 @@
         <v>ELC_N20</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -2233,7 +2228,7 @@
         <v>ELC_N12</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>ELCN27</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -2283,7 +2278,7 @@
         <v>ELC_N25</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14">
       <c r="B18" t="s">
         <v>75</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>ELC_N11</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -2333,7 +2328,7 @@
         <v>ELC_N10</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14">
       <c r="B20" t="s">
         <v>75</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>ELC_N21</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14">
       <c r="B21" t="s">
         <v>75</v>
       </c>
@@ -2383,7 +2378,7 @@
         <v>ELC_N22</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14">
       <c r="B22" t="s">
         <v>75</v>
       </c>
@@ -2408,7 +2403,7 @@
         <v>ELC_N24</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -2433,7 +2428,7 @@
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
         <v>75</v>
       </c>
@@ -2458,7 +2453,7 @@
         <v>ELC_N17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14">
       <c r="B25" t="s">
         <v>75</v>
       </c>
@@ -2483,7 +2478,7 @@
         <v>ELC_N18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14">
       <c r="B26" t="s">
         <v>75</v>
       </c>
@@ -2508,7 +2503,7 @@
         <v>ELC_N9</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14">
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -2533,7 +2528,7 @@
         <v>ELC_N28</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
         <v>75</v>
       </c>
@@ -2558,7 +2553,7 @@
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
         <v>75</v>
       </c>
@@ -2583,7 +2578,7 @@
         <v>ELC_N18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
         <v>75</v>
       </c>
@@ -2608,7 +2603,7 @@
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -2633,7 +2628,7 @@
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -2658,7 +2653,7 @@
         <v>ELC_N14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -2683,7 +2678,7 @@
         <v>ELC_N15</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14">
       <c r="B34" t="s">
         <v>75</v>
       </c>
@@ -2708,7 +2703,7 @@
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14">
       <c r="B35" t="s">
         <v>75</v>
       </c>
@@ -2733,7 +2728,7 @@
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14">
       <c r="B36" t="s">
         <v>75</v>
       </c>
@@ -2758,7 +2753,7 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
         <v>75</v>
       </c>
@@ -2783,7 +2778,7 @@
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -2808,7 +2803,7 @@
         <v>ELC_N4</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14">
       <c r="B39" t="s">
         <v>75</v>
       </c>
@@ -2833,7 +2828,7 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14">
       <c r="B40" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2853,7 @@
         <v>ELC_N8</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
         <v>75</v>
       </c>
@@ -2883,7 +2878,7 @@
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14">
       <c r="B42" t="s">
         <v>75</v>
       </c>
@@ -2908,7 +2903,7 @@
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14">
       <c r="B43" t="s">
         <v>75</v>
       </c>
@@ -2933,7 +2928,7 @@
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14">
       <c r="B44" t="s">
         <v>75</v>
       </c>
@@ -2958,7 +2953,7 @@
         <v>ELC_N3</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14">
       <c r="B45" t="s">
         <v>75</v>
       </c>
@@ -2983,21 +2978,21 @@
         <v>ELC_N20</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="8:8"/>
+    <row r="52" spans="8:8"/>
+    <row r="53" spans="8:8"/>
+    <row r="54" spans="8:8"/>
+    <row r="55" spans="8:8"/>
+    <row r="56" spans="8:8"/>
+    <row r="57" spans="8:8"/>
+    <row r="58" spans="8:8"/>
+    <row r="59" spans="8:8"/>
+    <row r="60" spans="8:8"/>
+    <row r="61" spans="8:8"/>
+    <row r="62" spans="8:8"/>
+    <row r="63" spans="8:8"/>
+    <row r="64" spans="8:8"/>
+    <row r="65" spans="8:8"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3007,6 +3002,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -3150,59 +3160,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0766DE0B-D4A0-4A8A-8F94-54C70B8F51FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEB460B-B7D2-48E7-AA7D-5454C474B8BA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A91278-E6EA-4F74-81D6-5AE489DA3938}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A91278-E6EA-4F74-81D6-5AE489DA3938}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEB460B-B7D2-48E7-AA7D-5454C474B8BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0766DE0B-D4A0-4A8A-8F94-54C70B8F51FB}"/>
 </file>
--- a/SuppXLS/Scen_BaseOther.xlsx
+++ b/SuppXLS/Scen_BaseOther.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="13_ncr:1_{C581AC64-41B5-498A-879E-C40B12E404E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B10B71-0394-4F2C-B401-387776C0B0FB}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{C581AC64-41B5-498A-879E-C40B12E404E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77273708-2235-4080-9CAC-C2514CB87ACC}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3012" windowWidth="24852" windowHeight="15468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GridCap" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>L_N3_N23</t>
   </si>
   <si>
-    <t>L_N23_N27</t>
-  </si>
-  <si>
     <t>L_N4_N7</t>
   </si>
   <si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>L_N7_N19</t>
+  </si>
+  <si>
+    <t>L_N23_N9</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -814,8 +814,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,7 +833,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -871,7 +871,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -943,7 +943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1119,34 +1119,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.15">
+    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.15">
+    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1298,10 +1298,10 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1313,10 +1313,10 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1328,10 +1328,10 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1343,10 +1343,10 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1358,10 +1358,10 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1373,10 +1373,10 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="14.25" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="3:10" ht="14.25" customHeight="1">
+    <row r="18" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1404,11 +1404,11 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1420,10 +1420,10 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1435,10 +1435,10 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1450,10 +1450,10 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1465,10 +1465,10 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1480,10 +1480,10 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1495,10 +1495,10 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1510,10 +1510,10 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1525,10 +1525,10 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
@@ -1540,10 +1540,10 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1555,10 +1555,10 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1570,10 +1570,10 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
@@ -1585,10 +1585,10 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
@@ -1599,11 +1599,11 @@
         <v>12.64</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="3:10">
+    <row r="32" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
@@ -1614,11 +1614,11 @@
         <v>15.600000000000001</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
@@ -1629,11 +1629,11 @@
         <v>15.600000000000001</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
@@ -1644,11 +1644,11 @@
         <v>15.600000000000001</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
@@ -1659,11 +1659,11 @@
         <v>15.600000000000001</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
@@ -1674,11 +1674,11 @@
         <v>31.200000000000003</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
@@ -1704,11 +1704,11 @@
         <v>56.56</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
@@ -1719,11 +1719,11 @@
         <v>56.56</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
@@ -1734,11 +1734,11 @@
         <v>15.600000000000001</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
@@ -1749,11 +1749,11 @@
         <v>35.28</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>19</v>
       </c>
@@ -1764,10 +1764,10 @@
         <v>39.44</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
@@ -1778,10 +1778,10 @@
         <v>35.28</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
@@ -1792,10 +1792,10 @@
         <v>47.360000000000007</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
@@ -1806,62 +1806,62 @@
         <v>12.64</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="3:10">
+    <row r="47" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="4:10">
+    <row r="49" spans="4:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="4:10">
+    <row r="50" spans="4:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="4:10">
+    <row r="51" spans="4:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="4:10">
+    <row r="52" spans="4:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="4:10">
+    <row r="53" spans="4:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="4:10">
+    <row r="54" spans="4:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="4:10"/>
-    <row r="73" spans="4:6" ht="12.75" customHeight="1">
+    <row r="55" spans="4:10" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="4:6"/>
-    <row r="75" spans="4:6" ht="12.75" customHeight="1">
+    <row r="74" spans="4:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="4:6"/>
+    <row r="76" spans="4:6" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1874,36 +1874,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="18" max="18" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15">
+    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
-      <c r="B2" s="10" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="13.15">
-      <c r="B3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1">
+    <row r="4" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1917,13 +1917,13 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
@@ -1932,33 +1932,33 @@
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -1978,12 +1978,12 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -2003,12 +2003,12 @@
         <v>ELC_N5</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -2028,12 +2028,12 @@
         <v>ELC_N1</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -2053,37 +2053,37 @@
         <v>ELC_N23</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>2023</v>
       </c>
       <c r="F9" t="str">
         <f>"IMP~OUT~ELC"&amp;RIGHT(J9,4)</f>
-        <v>IMP~OUT~ELC_N27</v>
+        <v>IMP~OUT~ELC3_N9</v>
       </c>
       <c r="H9">
         <v>-0.03</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="N9" t="str">
         <f>RIGHT(F9,7)</f>
-        <v>ELC_N27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
+        <v>ELC3_N9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -2096,19 +2096,19 @@
         <v>-0.03</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N7</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -2121,19 +2121,19 @@
         <v>-0.03</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N11" t="str">
         <f>RIGHT(F11,7)</f>
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>2023</v>
@@ -2146,19 +2146,19 @@
         <v>-0.03</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" ref="N12:N15" si="1">RIGHT(F12,7)</f>
         <v>ELC_N12</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -2171,19 +2171,19 @@
         <v>-0.03</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
         <v>ELC_N21</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -2196,19 +2196,19 @@
         <v>-0.03</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
         <v>ELC_N20</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>2023</v>
@@ -2221,19 +2221,19 @@
         <v>-0.03</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
         <v>ELC_N12</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -2246,19 +2246,19 @@
         <v>-0.03</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>ELCN27</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -2271,19 +2271,19 @@
         <v>-0.03</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17" t="str">
         <f>RIGHT(F17,7)</f>
         <v>ELC_N25</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -2296,19 +2296,19 @@
         <v>-0.03</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" ref="N18:N25" si="3">RIGHT(F18,7)</f>
         <v>ELC_N11</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>2023</v>
@@ -2321,19 +2321,19 @@
         <v>-0.03</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N10</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -2346,19 +2346,19 @@
         <v>-0.03</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N21</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>2023</v>
@@ -2371,19 +2371,19 @@
         <v>-0.03</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N22</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -2396,19 +2396,19 @@
         <v>-0.03</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N24</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>2023</v>
@@ -2421,19 +2421,19 @@
         <v>-0.03</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24">
         <v>2023</v>
@@ -2446,19 +2446,19 @@
         <v>-0.03</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N17</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>2023</v>
@@ -2471,19 +2471,19 @@
         <v>-0.03</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
         <v>ELC_N18</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>2023</v>
@@ -2496,19 +2496,19 @@
         <v>-0.03</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N9</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>2023</v>
@@ -2521,19 +2521,19 @@
         <v>-0.03</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N27" t="str">
         <f>RIGHT(F27,7)</f>
         <v>ELC_N28</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28">
         <v>2023</v>
@@ -2546,19 +2546,19 @@
         <v>-0.03</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" ref="N28:N30" si="5">RIGHT(F28,7)</f>
         <v>ELC_N27</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <v>2023</v>
@@ -2571,19 +2571,19 @@
         <v>-0.03</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="5"/>
         <v>ELC_N18</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30">
         <v>2023</v>
@@ -2596,19 +2596,19 @@
         <v>-0.03</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="5"/>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31">
         <v>2023</v>
@@ -2621,19 +2621,19 @@
         <v>-0.03</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N31" t="str">
         <f>RIGHT(F31,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32">
         <v>2023</v>
@@ -2646,19 +2646,19 @@
         <v>-0.03</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N32" t="str">
         <f>RIGHT(F32,7)</f>
         <v>ELC_N14</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>2023</v>
@@ -2671,19 +2671,19 @@
         <v>-0.03</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N33" t="str">
         <f>RIGHT(F33,7)</f>
         <v>ELC_N15</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34">
         <v>2023</v>
@@ -2696,19 +2696,19 @@
         <v>-0.03</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N34" t="str">
         <f>RIGHT(F34,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <v>2023</v>
@@ -2721,19 +2721,19 @@
         <v>-0.03</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N35" t="str">
         <f>RIGHT(F35,7)</f>
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36">
         <v>2023</v>
@@ -2753,12 +2753,12 @@
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37">
         <v>2023</v>
@@ -2771,19 +2771,19 @@
         <v>-0.03</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N37" t="str">
         <f>RIGHT(F37,7)</f>
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2023</v>
@@ -2796,19 +2796,19 @@
         <v>-0.03</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N4</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39">
         <v>2023</v>
@@ -2821,19 +2821,19 @@
         <v>-0.03</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N6</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40">
         <v>2023</v>
@@ -2846,19 +2846,19 @@
         <v>-0.03</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N8</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41">
         <v>2023</v>
@@ -2871,19 +2871,19 @@
         <v>-0.03</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N41" t="str">
         <f>RIGHT(F41,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42">
         <v>2023</v>
@@ -2896,19 +2896,19 @@
         <v>-0.03</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N42" t="str">
         <f>RIGHT(F42,7)</f>
         <v>ELC_N26</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <v>2023</v>
@@ -2921,19 +2921,19 @@
         <v>-0.03</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" t="str">
         <f>RIGHT(F43,7)</f>
         <v>ELC_N19</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44">
         <v>2023</v>
@@ -2946,19 +2946,19 @@
         <v>-0.03</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
         <v>ELC_N3</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>2023</v>
@@ -2971,28 +2971,28 @@
         <v>-0.03</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N45" t="str">
         <f>RIGHT(F45,7)</f>
         <v>ELC_N20</v>
       </c>
     </row>
-    <row r="51" spans="8:8"/>
-    <row r="52" spans="8:8"/>
-    <row r="53" spans="8:8"/>
-    <row r="54" spans="8:8"/>
-    <row r="55" spans="8:8"/>
-    <row r="56" spans="8:8"/>
-    <row r="57" spans="8:8"/>
-    <row r="58" spans="8:8"/>
-    <row r="59" spans="8:8"/>
-    <row r="60" spans="8:8"/>
-    <row r="61" spans="8:8"/>
-    <row r="62" spans="8:8"/>
-    <row r="63" spans="8:8"/>
-    <row r="64" spans="8:8"/>
-    <row r="65" spans="8:8"/>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3161,13 +3161,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEB460B-B7D2-48E7-AA7D-5454C474B8BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEB460B-B7D2-48E7-AA7D-5454C474B8BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A91278-E6EA-4F74-81D6-5AE489DA3938}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A91278-E6EA-4F74-81D6-5AE489DA3938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0766DE0B-D4A0-4A8A-8F94-54C70B8F51FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0766DE0B-D4A0-4A8A-8F94-54C70B8F51FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>